--- a/Hamara Database Aarush.xlsx
+++ b/Hamara Database Aarush.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\AEON\Web Checkin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7705A86A-22C6-47A3-A0E1-C6B5C7763EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384B8ECD-55B0-4A6B-9CAF-10423F45E261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BAAE9A17-EA94-49B8-91F0-84CA693282B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAE9A17-EA94-49B8-91F0-84CA693282B4}"/>
   </bookViews>
   <sheets>
     <sheet name="00" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>00</t>
   </si>
   <si>
-    <t>Aarush Mahajan</t>
-  </si>
-  <si>
     <t>Hackathon</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Third school</t>
+  </si>
+  <si>
+    <t>Aarush Mahajan2</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC0F00-665D-4C88-B912-334AA75E908C}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,16 +459,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -479,16 +479,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,42 +516,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B8410C-7CB7-4547-BFCB-BF26E177A5A4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,42 +580,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Hamara Database Aarush.xlsx
+++ b/Hamara Database Aarush.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\AEON\Web Checkin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384B8ECD-55B0-4A6B-9CAF-10423F45E261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7705A86A-22C6-47A3-A0E1-C6B5C7763EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAE9A17-EA94-49B8-91F0-84CA693282B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BAAE9A17-EA94-49B8-91F0-84CA693282B4}"/>
   </bookViews>
   <sheets>
     <sheet name="00" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,9 @@
     <t>00</t>
   </si>
   <si>
+    <t>Aarush Mahajan</t>
+  </si>
+  <si>
     <t>Hackathon</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>Third school</t>
-  </si>
-  <si>
-    <t>Aarush Mahajan2</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC0F00-665D-4C88-B912-334AA75E908C}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,16 +459,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -479,16 +479,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,42 +516,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B8410C-7CB7-4547-BFCB-BF26E177A5A4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,42 +580,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Hamara Database Aarush.xlsx
+++ b/Hamara Database Aarush.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\AEON\Web Checkin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7705A86A-22C6-47A3-A0E1-C6B5C7763EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AED44B-CFB0-4C10-8746-802F985CEF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BAAE9A17-EA94-49B8-91F0-84CA693282B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAE9A17-EA94-49B8-91F0-84CA693282B4}"/>
   </bookViews>
   <sheets>
     <sheet name="00" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>00</t>
   </si>
   <si>
-    <t>Aarush Mahajan</t>
-  </si>
-  <si>
     <t>Hackathon</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Third school</t>
+  </si>
+  <si>
+    <t>Aarush Mahajan2</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC0F00-665D-4C88-B912-334AA75E908C}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,16 +459,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -479,16 +479,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,42 +516,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B8410C-7CB7-4547-BFCB-BF26E177A5A4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -580,42 +580,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Hamara Database Aarush.xlsx
+++ b/Hamara Database Aarush.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\AEON\Web Checkin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AED44B-CFB0-4C10-8746-802F985CEF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7705A86A-22C6-47A3-A0E1-C6B5C7763EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAE9A17-EA94-49B8-91F0-84CA693282B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BAAE9A17-EA94-49B8-91F0-84CA693282B4}"/>
   </bookViews>
   <sheets>
     <sheet name="00" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,9 @@
     <t>00</t>
   </si>
   <si>
+    <t>Aarush Mahajan</t>
+  </si>
+  <si>
     <t>Hackathon</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>Third school</t>
-  </si>
-  <si>
-    <t>Aarush Mahajan2</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC0F00-665D-4C88-B912-334AA75E908C}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,16 +459,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -479,16 +479,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,42 +516,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B8410C-7CB7-4547-BFCB-BF26E177A5A4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -580,42 +580,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
